--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sigma Solve Ltd/Pruned_Excel/Final_Parameters/Sigma Solve Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Sigma Solve Ltd/Pruned_Excel/Final_Parameters/Sigma Solve Ltd_Cleaned_Data_Updated.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>Balance Sheet of Sigma Solve(in Rs. Cr.)</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -1386,13 +1389,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -1453,10 +1456,13 @@
       <c r="T1" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>4.9</v>
@@ -1488,23 +1494,20 @@
       <c r="K2">
         <v>0.99</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.99</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.33</v>
-      </c>
-      <c r="N2">
-        <v>0.66</v>
       </c>
       <c r="O2">
         <v>0.66</v>
       </c>
       <c r="P2">
+        <v>0.66</v>
+      </c>
+      <c r="Q2">
         <v>10.28</v>
-      </c>
-      <c r="Q2">
-        <v>0.64</v>
       </c>
       <c r="R2">
         <v>0.64</v>
@@ -1515,10 +1518,13 @@
       <c r="T2">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="U2">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>4.19</v>
@@ -1550,23 +1556,20 @@
       <c r="K3">
         <v>1.06</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1.06</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.25</v>
-      </c>
-      <c r="N3">
-        <v>0.8100000000000001</v>
       </c>
       <c r="O3">
         <v>0.8100000000000001</v>
       </c>
       <c r="P3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q3">
         <v>4.11</v>
-      </c>
-      <c r="Q3">
-        <v>0.79</v>
       </c>
       <c r="R3">
         <v>0.79</v>
@@ -1577,10 +1580,13 @@
       <c r="T3">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>3.61</v>
@@ -1612,31 +1618,31 @@
       <c r="K4">
         <v>0.35</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>0.35</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0.03</v>
-      </c>
-      <c r="N4">
-        <v>0.32</v>
       </c>
       <c r="O4">
         <v>0.32</v>
       </c>
       <c r="P4">
+        <v>0.32</v>
+      </c>
+      <c r="Q4">
         <v>4.11</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.77</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>5.93</v>
@@ -1668,23 +1674,20 @@
       <c r="K5">
         <v>1.19</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.19</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.26</v>
-      </c>
-      <c r="N5">
-        <v>0.93</v>
       </c>
       <c r="O5">
         <v>0.93</v>
       </c>
       <c r="P5">
+        <v>0.93</v>
+      </c>
+      <c r="Q5">
         <v>10.28</v>
-      </c>
-      <c r="Q5">
-        <v>0.85</v>
       </c>
       <c r="R5">
         <v>0.85</v>
@@ -1695,10 +1698,13 @@
       <c r="T5">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>5.06</v>
@@ -1730,31 +1736,31 @@
       <c r="K6">
         <v>0.36</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.36</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.24</v>
-      </c>
-      <c r="N6">
-        <v>0.13</v>
       </c>
       <c r="O6">
         <v>0.13</v>
       </c>
       <c r="P6">
+        <v>0.13</v>
+      </c>
+      <c r="Q6">
         <v>10.28</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.12</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>6.78</v>
@@ -1786,23 +1792,20 @@
       <c r="K7">
         <v>1.12</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.12</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.3</v>
-      </c>
-      <c r="N7">
-        <v>0.82</v>
       </c>
       <c r="O7">
         <v>0.82</v>
       </c>
       <c r="P7">
+        <v>0.82</v>
+      </c>
+      <c r="Q7">
         <v>10.28</v>
-      </c>
-      <c r="Q7">
-        <v>0.8</v>
       </c>
       <c r="R7">
         <v>0.8</v>
@@ -1813,10 +1816,13 @@
       <c r="T7">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>6.54</v>
@@ -1848,23 +1854,20 @@
       <c r="K8">
         <v>0.78</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>0.78</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.22</v>
-      </c>
-      <c r="N8">
-        <v>0.5600000000000001</v>
       </c>
       <c r="O8">
         <v>0.5600000000000001</v>
       </c>
       <c r="P8">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="Q8">
         <v>10.28</v>
-      </c>
-      <c r="Q8">
-        <v>0.55</v>
       </c>
       <c r="R8">
         <v>0.55</v>
@@ -1875,10 +1878,13 @@
       <c r="T8">
         <v>0.55</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>7.58</v>
@@ -1910,23 +1916,20 @@
       <c r="K9">
         <v>1.96</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.96</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.5</v>
-      </c>
-      <c r="N9">
-        <v>1.45</v>
       </c>
       <c r="O9">
         <v>1.45</v>
       </c>
       <c r="P9">
+        <v>1.45</v>
+      </c>
+      <c r="Q9">
         <v>10.28</v>
-      </c>
-      <c r="Q9">
-        <v>1.41</v>
       </c>
       <c r="R9">
         <v>1.41</v>
@@ -1937,10 +1940,13 @@
       <c r="T9">
         <v>1.41</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B10">
         <v>7.91</v>
@@ -1972,23 +1978,20 @@
       <c r="K10">
         <v>2.16</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2.16</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.52</v>
-      </c>
-      <c r="N10">
-        <v>1.63</v>
       </c>
       <c r="O10">
         <v>1.63</v>
       </c>
       <c r="P10">
+        <v>1.63</v>
+      </c>
+      <c r="Q10">
         <v>10.28</v>
-      </c>
-      <c r="Q10">
-        <v>1.59</v>
       </c>
       <c r="R10">
         <v>1.59</v>
@@ -1999,10 +2002,13 @@
       <c r="T10">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>8.4</v>
@@ -2034,23 +2040,20 @@
       <c r="K11">
         <v>2.56</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2.56</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0.66</v>
-      </c>
-      <c r="N11">
-        <v>1.91</v>
       </c>
       <c r="O11">
         <v>1.91</v>
       </c>
       <c r="P11">
+        <v>1.91</v>
+      </c>
+      <c r="Q11">
         <v>10.28</v>
-      </c>
-      <c r="Q11">
-        <v>1.86</v>
       </c>
       <c r="R11">
         <v>1.86</v>
@@ -2059,6 +2062,9 @@
         <v>1.86</v>
       </c>
       <c r="T11">
+        <v>1.86</v>
+      </c>
+      <c r="U11">
         <v>1.86</v>
       </c>
     </row>
@@ -2077,58 +2083,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:18">
